--- a/admin/student.xlsx
+++ b/admin/student.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\software\phpStudyLite\WWW\jiaowu\admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06AAAE07-F86C-4F79-9C35-5D0B304EE442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A509B9B-AA01-4D4E-8F74-3C21CAF8266D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17145" yWindow="375" windowWidth="21255" windowHeight="18030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8865" yWindow="2490" windowWidth="21255" windowHeight="18030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>吴亦凡</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,6 +48,30 @@
   </si>
   <si>
     <t>STUNAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白敬亭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗思源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨敏铝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邓小英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林嘉敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王一博</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -373,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -429,6 +453,72 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>12345669</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>12345661</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>12345662</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>12345663</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>12345664</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>12345665</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
